--- a/Modeling/order_1.xlsx
+++ b/Modeling/order_1.xlsx
@@ -396,13 +396,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.46</v>
+        <v>12.15</v>
       </c>
       <c r="C2" t="n">
         <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -410,13 +410,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.07</v>
+        <v>12.15</v>
       </c>
       <c r="C3" t="n">
         <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -424,13 +424,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.27</v>
+        <v>15.65</v>
       </c>
       <c r="C4" t="n">
         <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -438,13 +438,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.85</v>
+        <v>13.78</v>
       </c>
       <c r="C5" t="n">
         <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -452,13 +452,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1</v>
+        <v>14.76</v>
       </c>
       <c r="C6" t="n">
         <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -466,13 +466,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.12</v>
+        <v>13.96</v>
       </c>
       <c r="C7" t="n">
         <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -480,13 +480,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.3</v>
+        <v>14.84</v>
       </c>
       <c r="C8" t="n">
         <v>0.2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -494,13 +494,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.47</v>
+        <v>13.12</v>
       </c>
       <c r="C9" t="n">
         <v>0.2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -508,13 +508,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2</v>
+        <v>11.25</v>
       </c>
       <c r="C10" t="n">
         <v>0.2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -522,13 +522,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.22</v>
+        <v>10.68</v>
       </c>
       <c r="C11" t="n">
         <v>0.2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -536,13 +536,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13.16</v>
+        <v>12.48</v>
       </c>
       <c r="C12" t="n">
         <v>0.2</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -550,13 +550,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13.21</v>
+        <v>12.29</v>
       </c>
       <c r="C13" t="n">
         <v>0.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.46</v>
+        <v>10.36</v>
       </c>
       <c r="C14" t="n">
         <v>0.2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -578,13 +578,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.22</v>
+        <v>17.22</v>
       </c>
       <c r="C15" t="n">
         <v>0.2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -592,13 +592,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.29</v>
+        <v>12.1</v>
       </c>
       <c r="C16" t="n">
         <v>0.2</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -606,13 +606,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.59</v>
+        <v>14.84</v>
       </c>
       <c r="C17" t="n">
         <v>0.2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -620,13 +620,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.4</v>
+        <v>13.51</v>
       </c>
       <c r="C18" t="n">
         <v>0.2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -634,13 +634,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.37</v>
+        <v>13.47</v>
       </c>
       <c r="C19" t="n">
         <v>0.2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -648,13 +648,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.51</v>
+        <v>15.6</v>
       </c>
       <c r="C20" t="n">
         <v>0.2</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -662,13 +662,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.36</v>
+        <v>14.71</v>
       </c>
       <c r="C21" t="n">
         <v>0.2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -676,13 +676,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.22</v>
+        <v>12.11</v>
       </c>
       <c r="C22" t="n">
         <v>0.2</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -690,13 +690,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.28</v>
+        <v>14.81</v>
       </c>
       <c r="C23" t="n">
         <v>0.2</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -704,13 +704,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13.39</v>
+        <v>14.28</v>
       </c>
       <c r="C24" t="n">
         <v>0.2</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -718,13 +718,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.3</v>
+        <v>12.41</v>
       </c>
       <c r="C25" t="n">
         <v>0.2</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -732,13 +732,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.45</v>
+        <v>13.49</v>
       </c>
       <c r="C26" t="n">
         <v>0.2</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -746,13 +746,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.22</v>
+        <v>13.99</v>
       </c>
       <c r="C27" t="n">
         <v>0.2</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -760,13 +760,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.3</v>
+        <v>11.46</v>
       </c>
       <c r="C28" t="n">
         <v>0.2</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -774,13 +774,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.92</v>
+        <v>14.66</v>
       </c>
       <c r="C29" t="n">
         <v>0.2</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -788,13 +788,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13.55</v>
+        <v>13.16</v>
       </c>
       <c r="C30" t="n">
         <v>0.2</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -802,13 +802,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.16</v>
+        <v>14.32</v>
       </c>
       <c r="C31" t="n">
         <v>0.2</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -816,13 +816,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.25</v>
+        <v>15.17</v>
       </c>
       <c r="C32" t="n">
         <v>0.2</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -830,13 +830,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.19</v>
+        <v>12.37</v>
       </c>
       <c r="C33" t="n">
         <v>0.2</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -844,13 +844,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.2</v>
+        <v>13.21</v>
       </c>
       <c r="C34" t="n">
         <v>0.2</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -858,13 +858,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.13</v>
+        <v>12.35</v>
       </c>
       <c r="C35" t="n">
         <v>0.2</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -872,13 +872,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.37</v>
+        <v>12.64</v>
       </c>
       <c r="C36" t="n">
         <v>0.2</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -886,13 +886,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.17</v>
+        <v>13.16</v>
       </c>
       <c r="C37" t="n">
         <v>0.2</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -900,13 +900,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.06</v>
+        <v>11.49</v>
       </c>
       <c r="C38" t="n">
         <v>0.2</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -914,13 +914,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13.12</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>0.2</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -928,13 +928,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.26</v>
+        <v>14.65</v>
       </c>
       <c r="C40" t="n">
         <v>0.2</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -942,13 +942,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.28</v>
+        <v>14.97</v>
       </c>
       <c r="C41" t="n">
         <v>0.2</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -956,13 +956,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.12</v>
+        <v>13.18</v>
       </c>
       <c r="C42" t="n">
         <v>0.2</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -970,13 +970,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.42</v>
+        <v>12.05</v>
       </c>
       <c r="C43" t="n">
         <v>0.2</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -984,13 +984,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.13</v>
+        <v>13.18</v>
       </c>
       <c r="C44" t="n">
         <v>0.2</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -998,13 +998,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.34</v>
+        <v>14.41</v>
       </c>
       <c r="C45" t="n">
         <v>0.2</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.12</v>
+        <v>15.01</v>
       </c>
       <c r="C46" t="n">
         <v>0.2</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1026,13 +1026,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.91</v>
+        <v>12.61</v>
       </c>
       <c r="C47" t="n">
         <v>0.2</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1040,13 +1040,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.4</v>
+        <v>10.83</v>
       </c>
       <c r="C48" t="n">
         <v>0.2</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1054,13 +1054,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.42</v>
+        <v>12.09</v>
       </c>
       <c r="C49" t="n">
         <v>0.2</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1068,13 +1068,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.37</v>
+        <v>15.08</v>
       </c>
       <c r="C50" t="n">
         <v>0.2</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1082,13 +1082,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.17</v>
+        <v>13.4</v>
       </c>
       <c r="C51" t="n">
         <v>0.2</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1096,13 +1096,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.54</v>
+        <v>15.07</v>
       </c>
       <c r="C52" t="n">
         <v>0.2</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1110,13 +1110,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.41</v>
+        <v>13.59</v>
       </c>
       <c r="C53" t="n">
         <v>0.2</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1124,13 +1124,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.47</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C54" t="n">
         <v>0.2</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.51</v>
+        <v>12.08</v>
       </c>
       <c r="C55" t="n">
         <v>0.2</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.34</v>
+        <v>15.95</v>
       </c>
       <c r="C56" t="n">
         <v>0.2</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1166,13 +1166,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13.13</v>
+        <v>14.79</v>
       </c>
       <c r="C57" t="n">
         <v>0.2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1180,13 +1180,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.17</v>
+        <v>11.09</v>
       </c>
       <c r="C58" t="n">
         <v>0.2</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1194,13 +1194,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.2</v>
+        <v>10.4</v>
       </c>
       <c r="C59" t="n">
         <v>0.2</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1208,13 +1208,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.34</v>
+        <v>14.6</v>
       </c>
       <c r="C60" t="n">
         <v>0.2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1222,13 +1222,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.35</v>
+        <v>13.18</v>
       </c>
       <c r="C61" t="n">
         <v>0.2</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1236,13 +1236,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.33</v>
+        <v>13.03</v>
       </c>
       <c r="C62" t="n">
         <v>0.2</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1250,13 +1250,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.28</v>
+        <v>13.9</v>
       </c>
       <c r="C63" t="n">
         <v>0.2</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1264,13 +1264,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13.44</v>
+        <v>14.51</v>
       </c>
       <c r="C64" t="n">
         <v>0.2</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1278,13 +1278,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.13</v>
+        <v>12.73</v>
       </c>
       <c r="C65" t="n">
         <v>0.2</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1292,13 +1292,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.1</v>
+        <v>13.91</v>
       </c>
       <c r="C66" t="n">
         <v>0.2</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1306,13 +1306,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13.69</v>
+        <v>14.65</v>
       </c>
       <c r="C67" t="n">
         <v>0.2</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1320,13 +1320,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.32</v>
+        <v>13.95</v>
       </c>
       <c r="C68" t="n">
         <v>0.2</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1334,13 +1334,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.1</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>0.2</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1348,13 +1348,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.75</v>
+        <v>10.14</v>
       </c>
       <c r="C70" t="n">
         <v>0.2</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1362,13 +1362,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13.32</v>
+        <v>12.01</v>
       </c>
       <c r="C71" t="n">
         <v>0.2</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1376,13 +1376,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.19</v>
+        <v>13.61</v>
       </c>
       <c r="C72" t="n">
         <v>0.2</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1390,13 +1390,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13.18</v>
+        <v>11.45</v>
       </c>
       <c r="C73" t="n">
         <v>0.2</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1404,13 +1404,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.2</v>
+        <v>14.36</v>
       </c>
       <c r="C74" t="n">
         <v>0.2</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1418,13 +1418,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.12</v>
+        <v>12.2</v>
       </c>
       <c r="C75" t="n">
         <v>0.2</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1432,13 +1432,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.96</v>
+        <v>14.57</v>
       </c>
       <c r="C76" t="n">
         <v>0.2</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1446,13 +1446,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.17</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
         <v>0.2</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1460,13 +1460,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.31</v>
+        <v>14.87</v>
       </c>
       <c r="C78" t="n">
         <v>0.2</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1474,13 +1474,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.31</v>
+        <v>13.16</v>
       </c>
       <c r="C79" t="n">
         <v>0.2</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1488,13 +1488,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.05</v>
+        <v>14.87</v>
       </c>
       <c r="C80" t="n">
         <v>0.2</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1502,13 +1502,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.1</v>
+        <v>10.81</v>
       </c>
       <c r="C81" t="n">
         <v>0.2</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1516,13 +1516,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.15</v>
+        <v>13.06</v>
       </c>
       <c r="C82" t="n">
         <v>0.2</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1530,13 +1530,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.75</v>
+        <v>16.19</v>
       </c>
       <c r="C83" t="n">
         <v>0.2</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1544,13 +1544,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.68</v>
+        <v>14.58</v>
       </c>
       <c r="C84" t="n">
         <v>0.2</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1558,13 +1558,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.49</v>
+        <v>13.85</v>
       </c>
       <c r="C85" t="n">
         <v>0.2</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1572,13 +1572,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.3</v>
+        <v>14.99</v>
       </c>
       <c r="C86" t="n">
         <v>0.2</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1586,13 +1586,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.25</v>
+        <v>16.02</v>
       </c>
       <c r="C87" t="n">
         <v>0.2</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1600,13 +1600,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.49</v>
+        <v>14.4</v>
       </c>
       <c r="C88" t="n">
         <v>0.2</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1614,13 +1614,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.24</v>
+        <v>14.96</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1628,13 +1628,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.43</v>
+        <v>13.48</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1642,13 +1642,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.26</v>
+        <v>12.75</v>
       </c>
       <c r="C91" t="n">
         <v>0.2</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1656,13 +1656,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.41</v>
+        <v>10.92</v>
       </c>
       <c r="C92" t="n">
         <v>0.2</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1670,13 +1670,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.63</v>
+        <v>13.3</v>
       </c>
       <c r="C93" t="n">
         <v>0.2</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1684,13 +1684,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.17</v>
+        <v>13.76</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1698,13 +1698,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.24</v>
+        <v>13.71</v>
       </c>
       <c r="C95" t="n">
         <v>0.2</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1712,13 +1712,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.26</v>
+        <v>12.43</v>
       </c>
       <c r="C96" t="n">
         <v>0.2</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1726,13 +1726,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.59</v>
+        <v>14</v>
       </c>
       <c r="C97" t="n">
         <v>0.2</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1740,13 +1740,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.05</v>
+        <v>14.83</v>
       </c>
       <c r="C98" t="n">
         <v>0.2</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1754,13 +1754,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.95</v>
+        <v>15.36</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1768,13 +1768,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.46</v>
+        <v>11.9</v>
       </c>
       <c r="C100" t="n">
         <v>0.2</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1782,13 +1782,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13.42</v>
+        <v>12.42</v>
       </c>
       <c r="C101" t="n">
         <v>0.2</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1796,13 +1796,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.96</v>
+        <v>3.14</v>
       </c>
       <c r="C102" t="n">
         <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1810,13 +1810,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.81</v>
+        <v>6.98</v>
       </c>
       <c r="C103" t="n">
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1824,13 +1824,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.04</v>
+        <v>5.26</v>
       </c>
       <c r="C104" t="n">
         <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1838,13 +1838,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.84</v>
+        <v>3.96</v>
       </c>
       <c r="C105" t="n">
         <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1852,13 +1852,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.35</v>
+        <v>2.76</v>
       </c>
       <c r="C106" t="n">
         <v>7</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1866,13 +1866,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.65</v>
+        <v>4.74</v>
       </c>
       <c r="C107" t="n">
         <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1880,13 +1880,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.97</v>
+        <v>0.3</v>
       </c>
       <c r="C108" t="n">
         <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1894,13 +1894,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.7</v>
+        <v>1.91</v>
       </c>
       <c r="C109" t="n">
         <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1908,13 +1908,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.74</v>
+        <v>3.44</v>
       </c>
       <c r="C110" t="n">
         <v>7</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1922,13 +1922,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.75</v>
+        <v>3.14</v>
       </c>
       <c r="C111" t="n">
         <v>7</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1936,13 +1936,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.72</v>
+        <v>3.44</v>
       </c>
       <c r="C112" t="n">
         <v>7</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1950,13 +1950,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.34</v>
+        <v>0.91</v>
       </c>
       <c r="C113" t="n">
         <v>7</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1964,13 +1964,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="C114" t="n">
         <v>7</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1978,13 +1978,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.8</v>
+        <v>1.18</v>
       </c>
       <c r="C115" t="n">
         <v>7</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1992,13 +1992,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.99</v>
+        <v>1.87</v>
       </c>
       <c r="C116" t="n">
         <v>7</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2006,13 +2006,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.9</v>
+        <v>4.64</v>
       </c>
       <c r="C117" t="n">
         <v>7</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2020,13 +2020,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.98</v>
+        <v>3.47</v>
       </c>
       <c r="C118" t="n">
         <v>7</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2034,13 +2034,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.77</v>
+        <v>5.72</v>
       </c>
       <c r="C119" t="n">
         <v>7</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.6</v>
+        <v>0.22</v>
       </c>
       <c r="C120" t="n">
         <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2062,13 +2062,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.9</v>
+        <v>5.29</v>
       </c>
       <c r="C121" t="n">
         <v>7</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2076,13 +2076,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.91</v>
+        <v>4.85</v>
       </c>
       <c r="C122" t="n">
         <v>7</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2090,13 +2090,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.98</v>
+        <v>3.09</v>
       </c>
       <c r="C123" t="n">
         <v>7</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.9</v>
+        <v>1.39</v>
       </c>
       <c r="C124" t="n">
         <v>7</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2118,13 +2118,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.59</v>
+        <v>2.75</v>
       </c>
       <c r="C125" t="n">
         <v>7</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.66</v>
+        <v>4.93</v>
       </c>
       <c r="C126" t="n">
         <v>7</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.81</v>
+        <v>2.78</v>
       </c>
       <c r="C127" t="n">
         <v>7</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.79</v>
+        <v>3.2</v>
       </c>
       <c r="C128" t="n">
         <v>7</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="C129" t="n">
         <v>7</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2188,13 +2188,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.45</v>
+        <v>1.18</v>
       </c>
       <c r="C130" t="n">
         <v>7</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.42</v>
+        <v>2.76</v>
       </c>
       <c r="C131" t="n">
         <v>7</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2216,13 +2216,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.93</v>
+        <v>1.76</v>
       </c>
       <c r="C132" t="n">
         <v>7</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2230,13 +2230,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.64</v>
+        <v>3.7</v>
       </c>
       <c r="C133" t="n">
         <v>7</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2244,13 +2244,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.8</v>
+        <v>3.91</v>
       </c>
       <c r="C134" t="n">
         <v>7</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2258,13 +2258,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.67</v>
+        <v>4.56</v>
       </c>
       <c r="C135" t="n">
         <v>7</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2272,13 +2272,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.75</v>
+        <v>3.04</v>
       </c>
       <c r="C136" t="n">
         <v>7</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2286,13 +2286,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.46</v>
+        <v>1.57</v>
       </c>
       <c r="C137" t="n">
         <v>7</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2300,13 +2300,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.86</v>
+        <v>3.88</v>
       </c>
       <c r="C138" t="n">
         <v>7</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2314,13 +2314,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.76</v>
+        <v>5.32</v>
       </c>
       <c r="C139" t="n">
         <v>7</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2328,13 +2328,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.68</v>
+        <v>4.33</v>
       </c>
       <c r="C140" t="n">
         <v>7</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2342,13 +2342,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="C141" t="n">
         <v>7</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2356,13 +2356,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="C142" t="n">
         <v>7</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2370,13 +2370,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.84</v>
+        <v>6.28</v>
       </c>
       <c r="C143" t="n">
         <v>7</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2384,13 +2384,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.71</v>
+        <v>3.65</v>
       </c>
       <c r="C144" t="n">
         <v>7</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2398,13 +2398,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.74</v>
+        <v>2.34</v>
       </c>
       <c r="C145" t="n">
         <v>7</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2412,13 +2412,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.56</v>
+        <v>3.66</v>
       </c>
       <c r="C146" t="n">
         <v>7</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2426,13 +2426,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.19</v>
+        <v>1.93</v>
       </c>
       <c r="C147" t="n">
         <v>7</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2440,13 +2440,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.84</v>
+        <v>2.64</v>
       </c>
       <c r="C148" t="n">
         <v>7</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2454,13 +2454,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.62</v>
+        <v>6.02</v>
       </c>
       <c r="C149" t="n">
         <v>7</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2468,13 +2468,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.72</v>
+        <v>6.46</v>
       </c>
       <c r="C150" t="n">
         <v>7</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2482,13 +2482,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.99</v>
+        <v>1.92</v>
       </c>
       <c r="C151" t="n">
         <v>7</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2496,13 +2496,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.82</v>
+        <v>0.86</v>
       </c>
       <c r="C152" t="n">
         <v>7</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2510,13 +2510,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.79</v>
+        <v>1.79</v>
       </c>
       <c r="C153" t="n">
         <v>7</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2524,13 +2524,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.76</v>
+        <v>3.16</v>
       </c>
       <c r="C154" t="n">
         <v>7</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2538,13 +2538,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.53</v>
+        <v>1.69</v>
       </c>
       <c r="C155" t="n">
         <v>7</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2552,13 +2552,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.78</v>
+        <v>1.44</v>
       </c>
       <c r="C156" t="n">
         <v>7</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2566,13 +2566,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="C157" t="n">
         <v>7</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2580,13 +2580,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.88</v>
+        <v>4.8</v>
       </c>
       <c r="C158" t="n">
         <v>7</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2594,13 +2594,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.49</v>
+        <v>-0.41</v>
       </c>
       <c r="C159" t="n">
         <v>7</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2608,13 +2608,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.54</v>
+        <v>3.43</v>
       </c>
       <c r="C160" t="n">
         <v>7</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2622,13 +2622,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="C161" t="n">
         <v>7</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2636,13 +2636,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.15</v>
+        <v>3.78</v>
       </c>
       <c r="C162" t="n">
         <v>7</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2650,13 +2650,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.97</v>
+        <v>5.86</v>
       </c>
       <c r="C163" t="n">
         <v>7</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2664,13 +2664,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.56</v>
+        <v>2.91</v>
       </c>
       <c r="C164" t="n">
         <v>7</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2678,13 +2678,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.73</v>
+        <v>2.86</v>
       </c>
       <c r="C165" t="n">
         <v>7</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2692,13 +2692,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.83</v>
+        <v>4.13</v>
       </c>
       <c r="C166" t="n">
         <v>7</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2706,13 +2706,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.03</v>
+        <v>2.94</v>
       </c>
       <c r="C167" t="n">
         <v>7</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2720,13 +2720,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.73</v>
+        <v>4.97</v>
       </c>
       <c r="C168" t="n">
         <v>7</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2734,13 +2734,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.44</v>
+        <v>5.98</v>
       </c>
       <c r="C169" t="n">
         <v>7</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2748,13 +2748,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.75</v>
+        <v>6.1</v>
       </c>
       <c r="C170" t="n">
         <v>7</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2762,13 +2762,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.95</v>
+        <v>2.05</v>
       </c>
       <c r="C171" t="n">
         <v>7</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2776,13 +2776,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="C172" t="n">
         <v>7</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2790,13 +2790,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.39</v>
+        <v>6.9</v>
       </c>
       <c r="C173" t="n">
         <v>7</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2804,13 +2804,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.89</v>
+        <v>4.09</v>
       </c>
       <c r="C174" t="n">
         <v>7</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2818,13 +2818,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.96</v>
+        <v>6.65</v>
       </c>
       <c r="C175" t="n">
         <v>7</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2832,13 +2832,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.85</v>
+        <v>2.02</v>
       </c>
       <c r="C176" t="n">
         <v>7</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2846,13 +2846,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.73</v>
+        <v>3.93</v>
       </c>
       <c r="C177" t="n">
         <v>7</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2860,13 +2860,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.77</v>
+        <v>1.62</v>
       </c>
       <c r="C178" t="n">
         <v>7</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2874,13 +2874,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.51</v>
+        <v>2.75</v>
       </c>
       <c r="C179" t="n">
         <v>7</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2888,13 +2888,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.69</v>
+        <v>3.95</v>
       </c>
       <c r="C180" t="n">
         <v>7</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2902,13 +2902,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.37</v>
+        <v>1.77</v>
       </c>
       <c r="C181" t="n">
         <v>7</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2916,13 +2916,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.81</v>
+        <v>4.26</v>
       </c>
       <c r="C182" t="n">
         <v>7</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2930,13 +2930,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.29</v>
+        <v>2.55</v>
       </c>
       <c r="C183" t="n">
         <v>7</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2944,13 +2944,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="C184" t="n">
         <v>7</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2958,13 +2958,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3.94</v>
+        <v>2.49</v>
       </c>
       <c r="C185" t="n">
         <v>7</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2972,13 +2972,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.97</v>
+        <v>1.37</v>
       </c>
       <c r="C186" t="n">
         <v>7</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2986,13 +2986,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.73</v>
+        <v>5.26</v>
       </c>
       <c r="C187" t="n">
         <v>7</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3000,13 +3000,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3.96</v>
+        <v>0.9</v>
       </c>
       <c r="C188" t="n">
         <v>7</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3014,13 +3014,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.53</v>
+        <v>4.18</v>
       </c>
       <c r="C189" t="n">
         <v>7</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3028,13 +3028,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.72</v>
+        <v>5.09</v>
       </c>
       <c r="C190" t="n">
         <v>7</v>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3042,13 +3042,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3.57</v>
+        <v>3.13</v>
       </c>
       <c r="C191" t="n">
         <v>7</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3056,13 +3056,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3.84</v>
+        <v>4.28</v>
       </c>
       <c r="C192" t="n">
         <v>7</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3070,13 +3070,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.56</v>
+        <v>4.64</v>
       </c>
       <c r="C193" t="n">
         <v>7</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3084,13 +3084,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3.72</v>
+        <v>4.97</v>
       </c>
       <c r="C194" t="n">
         <v>7</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3098,13 +3098,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.83</v>
+        <v>3.61</v>
       </c>
       <c r="C195" t="n">
         <v>7</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3112,13 +3112,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.03</v>
+        <v>3.84</v>
       </c>
       <c r="C196" t="n">
         <v>7</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3126,13 +3126,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3.8</v>
+        <v>-1.83</v>
       </c>
       <c r="C197" t="n">
         <v>7</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3140,13 +3140,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3.68</v>
+        <v>9.58</v>
       </c>
       <c r="C198" t="n">
         <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3154,13 +3154,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3.74</v>
+        <v>2.12</v>
       </c>
       <c r="C199" t="n">
         <v>7</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3168,13 +3168,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3.66</v>
+        <v>5.11</v>
       </c>
       <c r="C200" t="n">
         <v>7</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3182,13 +3182,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3.98</v>
+        <v>4.29</v>
       </c>
       <c r="C201" t="n">
         <v>7</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
